--- a/Clinik/2. Терминоэлементы имен существительных/4.ТЭ  существительных 3-го склонения (часть 2)/practice.xlsx
+++ b/Clinik/2. Терминоэлементы имен существительных/4.ТЭ  существительных 3-го склонения (часть 2)/practice.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="234">
   <si>
     <t>type</t>
   </si>
@@ -718,6 +718,9 @@
   </si>
   <si>
     <t>Хирургический разрез кшечника</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1087,21 +1090,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="39.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="48.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1124,7 +1127,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>233</v>
+      </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -1144,7 +1150,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>233</v>
+      </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
@@ -1164,7 +1173,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>233</v>
+      </c>
       <c r="B4" t="s">
         <v>9</v>
       </c>
@@ -1184,7 +1196,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
       <c r="B5" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1219,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>233</v>
+      </c>
       <c r="B6" t="s">
         <v>11</v>
       </c>
@@ -1224,7 +1242,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>233</v>
+      </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
@@ -1244,7 +1265,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>233</v>
+      </c>
       <c r="B8" t="s">
         <v>13</v>
       </c>
@@ -1264,7 +1288,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>233</v>
+      </c>
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +1311,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>233</v>
+      </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
@@ -1304,7 +1334,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>233</v>
+      </c>
       <c r="B11" t="s">
         <v>16</v>
       </c>
@@ -1324,7 +1357,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>233</v>
+      </c>
       <c r="B12" t="s">
         <v>17</v>
       </c>
@@ -1344,7 +1380,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>233</v>
+      </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1403,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>233</v>
+      </c>
       <c r="B14" t="s">
         <v>19</v>
       </c>
@@ -1384,7 +1426,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>233</v>
+      </c>
       <c r="B15" t="s">
         <v>20</v>
       </c>
@@ -1404,7 +1449,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>233</v>
+      </c>
       <c r="B16" t="s">
         <v>21</v>
       </c>
@@ -1424,7 +1472,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>233</v>
+      </c>
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -1444,7 +1495,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>233</v>
+      </c>
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -1464,7 +1518,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>233</v>
+      </c>
       <c r="B19" t="s">
         <v>24</v>
       </c>
@@ -1484,7 +1541,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>233</v>
+      </c>
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -1504,7 +1564,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>233</v>
+      </c>
       <c r="B21" t="s">
         <v>26</v>
       </c>
@@ -1524,7 +1587,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>233</v>
+      </c>
       <c r="B22" t="s">
         <v>27</v>
       </c>
@@ -1544,7 +1610,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>233</v>
+      </c>
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -1564,7 +1633,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>233</v>
+      </c>
       <c r="B24" t="s">
         <v>29</v>
       </c>
@@ -1584,7 +1656,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>233</v>
+      </c>
       <c r="B25" t="s">
         <v>30</v>
       </c>
@@ -1604,7 +1679,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>233</v>
+      </c>
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -1624,7 +1702,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>233</v>
+      </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -1644,7 +1725,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>233</v>
+      </c>
       <c r="B28" t="s">
         <v>33</v>
       </c>
@@ -1664,7 +1748,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>233</v>
+      </c>
       <c r="B29" t="s">
         <v>34</v>
       </c>
@@ -1684,7 +1771,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>233</v>
+      </c>
       <c r="B30" t="s">
         <v>35</v>
       </c>
@@ -1704,7 +1794,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>233</v>
+      </c>
       <c r="B31" t="s">
         <v>36</v>
       </c>
@@ -1724,7 +1817,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>233</v>
+      </c>
       <c r="B32" t="s">
         <v>37</v>
       </c>
@@ -1744,7 +1840,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>233</v>
+      </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
@@ -1764,7 +1863,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>233</v>
+      </c>
       <c r="B34" t="s">
         <v>39</v>
       </c>
@@ -1784,7 +1886,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>233</v>
+      </c>
       <c r="B35" t="s">
         <v>40</v>
       </c>
@@ -1804,7 +1909,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>233</v>
+      </c>
       <c r="B36" t="s">
         <v>41</v>
       </c>
@@ -1824,7 +1932,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>233</v>
+      </c>
       <c r="B37" t="s">
         <v>42</v>
       </c>
@@ -1844,7 +1955,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>233</v>
+      </c>
       <c r="B38" t="s">
         <v>43</v>
       </c>
@@ -1864,7 +1978,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>233</v>
+      </c>
       <c r="B39" t="s">
         <v>44</v>
       </c>
@@ -1884,7 +2001,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>233</v>
+      </c>
       <c r="B40" t="s">
         <v>45</v>
       </c>
@@ -1904,7 +2024,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>233</v>
+      </c>
       <c r="B41" t="s">
         <v>46</v>
       </c>
@@ -1924,7 +2047,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>233</v>
+      </c>
       <c r="B42" t="s">
         <v>47</v>
       </c>
@@ -1944,7 +2070,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>233</v>
+      </c>
       <c r="B43" t="s">
         <v>48</v>
       </c>
@@ -1964,7 +2093,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>233</v>
+      </c>
       <c r="B44" t="s">
         <v>49</v>
       </c>
@@ -1984,7 +2116,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>233</v>
+      </c>
       <c r="B45" t="s">
         <v>50</v>
       </c>
@@ -2004,7 +2139,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>233</v>
+      </c>
       <c r="B46" t="s">
         <v>51</v>
       </c>
@@ -2024,7 +2162,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>233</v>
+      </c>
       <c r="B47" t="s">
         <v>52</v>
       </c>
@@ -2044,7 +2185,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>233</v>
+      </c>
       <c r="B48" t="s">
         <v>53</v>
       </c>
@@ -2064,7 +2208,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>233</v>
+      </c>
       <c r="B49" t="s">
         <v>54</v>
       </c>
@@ -2084,7 +2231,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>233</v>
+      </c>
       <c r="B50" t="s">
         <v>55</v>
       </c>
@@ -2104,7 +2254,10 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>233</v>
+      </c>
       <c r="B51" t="s">
         <v>56</v>
       </c>
